--- a/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>101,05%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 28,99</t>
+          <t>-17,68; 20,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 15,71</t>
+          <t>-15,35; 12,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 402,97</t>
+          <t>-56,13; 205,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 676,92</t>
+          <t>-83,2; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,23%</t>
+          <t>-62,9%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 12,45</t>
+          <t>-41,76; 8,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 9,1</t>
+          <t>-50,83; 6,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 292,8</t>
+          <t>-95,72; 115,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 211,98</t>
+          <t>-100,0; 212,64</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>152,8%</t>
+          <t>104,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>20,83%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 18,37</t>
+          <t>-1,79; 19,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 9,05</t>
+          <t>-10,1; 14,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 498,23</t>
+          <t>-16,11; 506,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 100,85</t>
+          <t>-44,87; 183,34</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>38,16%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 6,5</t>
+          <t>-10,57; 9,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 9,14</t>
+          <t>-5,63; 15,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 68,21</t>
+          <t>-58,6; 128,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 91,1</t>
+          <t>-31,84; 187,32</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,36</t>
+          <t>-7,24; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 8,97</t>
+          <t>-9,39; 12,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 185,64</t>
+          <t>-74,37; 349,77</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-45,84%</t>
+          <t>-66,02%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,81</t>
+          <t>-16,01; 5,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 5,9</t>
+          <t>-23,36; 2,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,19; 199,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,51; 107,73</t>
+          <t>-100,0; 148,76</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>-6,12%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,05</t>
+          <t>-5,71; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,0</t>
+          <t>-9,25; 4,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 106,83</t>
+          <t>-35,38; 77,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 39,5</t>
+          <t>-47,53; 44,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.557836996525138</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.9185509658022423</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1728517342389396</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.08958290146047324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; 20,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 12,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-56,13; 205,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-83,2; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.2689765074795</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.88317583528768</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5181148887550229</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.8731544459200463</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.01136047114412</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.68081039538228</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.343277428174938</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>4.707370739337867</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-39,59%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-62,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-41,76; 8,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-50,83; 6,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-95,72; 115,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 212,64</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-9.09843047106977</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.90291227064583</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.4196167371338747</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.5190692674954962</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>104,06%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-34.87318614906719</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-39.01307047222662</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9310812677155644</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 19,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,1; 14,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 506,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-44,87; 183,34</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.006773966245003</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.651227439651636</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.344364494587584</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +712,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,29%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>38,16%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.760371047332246</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.911600368809047</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9054318606807733</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1713959175269773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 9,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 15,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-58,6; 128,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-31,84; 187,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.165210218135954</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.96772190524404</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2405866574056886</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4663657312796569</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.03386696762271</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.62700329422267</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>4.488832230939195</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.71269615351268</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>18,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 12,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-74,37; 349,77</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.7976689808679924</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.544958379044306</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.06008108407455483</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.5371161099171127</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-8,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-47,28%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-66,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.51745792095042</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.050120399574446</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.605780573344112</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2294570938737851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 5,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,36; 2,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 148,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.127252115483302</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.41602586087435</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.14689570486862</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.235039294870516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +840,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-6,12%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.689777369538363</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.035422044703573</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.2035676512070194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 6,37</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 4,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-35,38; 77,19</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-47,53; 44,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.005398620759895</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.794224768687855</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.7088073494440291</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.76347868030389</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>2.651343558555429</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.489814798296405</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-6.63941799712105</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3026444836065077</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.5811134320552683</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.74869090017689</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.81406985263469</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>11.16806118489064</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.122028046960097</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.379692339404939</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8264491217896713</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.1117573693049226</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.06146596372889402</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.238052507109469</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.119104747933299</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.3928450439089866</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.3825521281317267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.437822407897574</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.516711394734398</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7002035297329633</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6725567302051082</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1018,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
